--- a/Cronograma_SEGEMI.xlsx
+++ b/Cronograma_SEGEMI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Telemetría\Documents\SEGEMI\Estadia_Trabajo-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{577179A6-3E24-4084-93F0-0D74B5C8412D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E940C6AA-23D5-4100-BB9C-F4CF552989C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="90" windowWidth="21600" windowHeight="11385" xr2:uid="{87D024EA-3110-4335-93C2-3C64B6567A6C}"/>
   </bookViews>
@@ -195,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -387,15 +387,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -411,18 +429,90 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -430,75 +520,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -817,50 +838,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFD0CF2-632B-47EC-A126-1BBF9E7273E3}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="14" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="14" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="14" t="s">
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="15"/>
+      <c r="R1" s="33"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="1">
         <v>1</v>
       </c>
@@ -908,246 +929,246 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="34">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="34">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="34">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="34" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="16" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+      <c r="A15" s="8">
         <v>1</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="8">
         <v>1</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="8">
         <v>5</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="10">
         <v>45414</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="11">
         <v>45441</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="8">
         <v>3</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8">
         <v>1.2</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="8">
         <v>2</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="8">
         <v>2</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="10">
         <v>45415</v>
       </c>
       <c r="G17" s="18">
@@ -1155,20 +1176,20 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="8">
         <v>2</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="8">
         <v>2</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="10">
         <v>45421</v>
       </c>
       <c r="G18" s="18">
@@ -1176,247 +1197,248 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8">
         <v>1.3</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="8">
         <v>3</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="8">
         <v>3</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="10">
         <v>45425</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="11">
         <v>45427</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8">
         <v>1.4</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="8">
         <v>3</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="8">
         <v>4</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="10">
         <v>45428</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="11">
         <v>45432</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16">
+    <row r="21" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8">
         <v>1.5</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="8">
         <v>4</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="8">
         <v>4</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="10">
         <v>45433</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="11">
         <v>45435</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8">
         <v>1.6</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="8">
         <v>4</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="8">
         <v>5</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="10">
         <v>45436</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="11">
         <v>45441</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+      <c r="A23" s="12">
         <v>2</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="12">
         <v>6</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="12">
         <v>9</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="13">
         <v>45442</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="14">
         <v>44862</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16">
         <v>2.1</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="16">
         <v>6</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="16">
         <v>7</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="17">
         <v>45442</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="17">
         <v>45447</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="16">
         <v>6</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="16">
         <v>8</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="17">
         <v>45448</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="17">
         <v>45462</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="16">
         <v>7</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="16">
         <v>8</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="17">
         <v>45463</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="17">
         <v>45470</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
+      <c r="A27" s="15">
         <v>3</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="16">
         <v>10</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="16">
         <v>14</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="17">
         <v>45471</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="17">
         <v>45510</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16">
         <v>3.1</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="16">
         <v>10</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="16">
         <v>14</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16">
         <v>3.2</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="16">
         <v>10</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="16">
         <v>14</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16">
         <v>3.3</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="16">
         <v>10</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="16">
         <v>14</v>
       </c>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="D12:E13"/>
     <mergeCell ref="F12:G13"/>
     <mergeCell ref="A12:B14"/>
@@ -1433,7 +1455,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
